--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3484.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3484.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.191249840652497</v>
+        <v>0.7357868552207947</v>
       </c>
       <c r="B1">
-        <v>2.410356864928275</v>
+        <v>2.255160331726074</v>
       </c>
       <c r="C1">
-        <v>7.793026765293955</v>
+        <v>3.868005752563477</v>
       </c>
       <c r="D1">
-        <v>2.786525661364219</v>
+        <v>3.42602014541626</v>
       </c>
       <c r="E1">
-        <v>1.409834586404002</v>
+        <v>1.999013423919678</v>
       </c>
     </row>
   </sheetData>
